--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" t="b" s="6">
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" t="b" s="6">

--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -652,6 +652,9 @@
     <t>Error..210Pb.Date..1SD.Units</t>
   </si>
   <si>
+    <t>1SD</t>
+  </si>
+  <si>
     <t>ndb.chroncontrols.notes</t>
   </si>
   <si>
@@ -890,9 +893,6 @@
   </si>
   <si>
     <t>Depositional.Env</t>
-  </si>
-  <si>
-    <t>ndb.depenvttypes.depenvt</t>
   </si>
   <si>
     <t>Method.for.estimating.supported.210Pb</t>
@@ -3880,14 +3880,16 @@
       <c r="O47" t="s" s="20">
         <v>104</v>
       </c>
-      <c r="P47" s="21"/>
+      <c r="P47" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="48" ht="13.65" customHeight="1">
       <c r="A48" t="s" s="4">
         <v>37</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="b" s="6">
         <v>0</v>
@@ -3908,7 +3910,7 @@
       <c r="K48" s="23"/>
       <c r="L48" s="21"/>
       <c r="M48" t="s" s="20">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
@@ -3919,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" t="b" s="6">
         <v>0</v>
@@ -3946,10 +3948,10 @@
     </row>
     <row r="50" ht="13.65" customHeight="1">
       <c r="A50" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="b" s="6">
         <v>0</v>
@@ -3968,11 +3970,11 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" t="s" s="24">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L50" s="21"/>
       <c r="M50" t="s" s="20">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
@@ -3983,7 +3985,7 @@
         <v>37</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C51" t="b" s="6">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>37</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="b" s="6">
         <v>0</v>
@@ -4073,7 +4075,7 @@
         <v>37</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" t="b" s="6">
         <v>1</v>
@@ -4090,10 +4092,10 @@
       </c>
       <c r="H54" s="21"/>
       <c r="I54" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J54" t="s" s="20">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
@@ -4104,10 +4106,10 @@
     </row>
     <row r="55" ht="13.65" customHeight="1">
       <c r="A55" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" t="b" s="6">
         <v>1</v>
@@ -4124,7 +4126,7 @@
       </c>
       <c r="H55" s="21"/>
       <c r="I55" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -4136,10 +4138,10 @@
     </row>
     <row r="56" ht="13.65" customHeight="1">
       <c r="A56" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" t="b" s="6">
         <v>0</v>
@@ -4156,7 +4158,7 @@
       </c>
       <c r="H56" s="21"/>
       <c r="I56" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
@@ -4201,7 +4203,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" t="b" s="6">
         <v>1</v>
@@ -4218,7 +4220,7 @@
       </c>
       <c r="H58" s="21"/>
       <c r="I58" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J58" t="s" s="20">
         <v>1</v>
@@ -4235,7 +4237,7 @@
         <v>37</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" t="b" s="6">
         <v>0</v>
@@ -4265,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" t="b" s="6">
         <v>0</v>
@@ -4325,7 +4327,7 @@
         <v>37</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="b" s="6">
         <v>0</v>
@@ -4355,7 +4357,7 @@
         <v>37</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" t="b" s="6">
         <v>0</v>
@@ -4385,7 +4387,7 @@
         <v>37</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" t="b" s="6">
         <v>0</v>
@@ -4415,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" t="b" s="6">
         <v>0</v>
@@ -4445,7 +4447,7 @@
         <v>99</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C66" t="b" s="6">
         <v>0</v>
@@ -4474,14 +4476,16 @@
       <c r="O66" t="s" s="20">
         <v>104</v>
       </c>
-      <c r="P66" s="21"/>
+      <c r="P66" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="67" ht="13.65" customHeight="1">
       <c r="A67" t="s" s="4">
         <v>37</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C67" t="b" s="6">
         <v>1</v>
@@ -4511,7 +4515,7 @@
         <v>37</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" t="b" s="6">
         <v>1</v>
@@ -4538,10 +4542,10 @@
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" t="b" s="6">
         <v>0</v>
@@ -4557,18 +4561,18 @@
         <v>39</v>
       </c>
       <c r="H69" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" t="s" s="20">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L69" s="22">
         <v>5782</v>
       </c>
       <c r="M69" t="s" s="20">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N69" s="21"/>
       <c r="O69" s="21"/>
@@ -4576,10 +4580,10 @@
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" t="b" s="6">
         <v>0</v>
@@ -4595,18 +4599,18 @@
         <v>39</v>
       </c>
       <c r="H70" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" t="s" s="20">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M70" t="s" s="20">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N70" s="21"/>
       <c r="O70" s="21"/>
@@ -4614,10 +4618,10 @@
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" t="b" s="6">
         <v>0</v>
@@ -4633,33 +4637,33 @@
         <v>39</v>
       </c>
       <c r="H71" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" t="s" s="20">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L71" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M71" t="s" s="20">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N71" t="s" s="20">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O71" t="s" s="20">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P71" s="21"/>
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" t="b" s="6">
         <v>0</v>
@@ -4675,7 +4679,7 @@
         <v>39</v>
       </c>
       <c r="H72" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -4683,25 +4687,25 @@
         <v>8</v>
       </c>
       <c r="L72" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M72" t="s" s="20">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N72" t="s" s="20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O72" t="s" s="20">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P72" s="21"/>
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" t="b" s="6">
         <v>0</v>
@@ -4717,33 +4721,33 @@
         <v>39</v>
       </c>
       <c r="H73" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" t="s" s="24">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L73" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M73" t="s" s="20">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N73" t="s" s="20">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O73" t="s" s="20">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P73" s="21"/>
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C74" t="b" s="6">
         <v>0</v>
@@ -4759,33 +4763,33 @@
         <v>39</v>
       </c>
       <c r="H74" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" t="s" s="24">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s" s="20">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" t="s" s="20">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O74" t="s" s="20">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P74" s="21"/>
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="4">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" t="b" s="6">
         <v>0</v>
@@ -4801,33 +4805,33 @@
         <v>39</v>
       </c>
       <c r="H75" t="s" s="20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" t="s" s="24">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M75" t="s" s="20">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N75" t="s" s="20">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O75" t="s" s="20">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P75" s="21"/>
     </row>
     <row r="76" ht="13.65" customHeight="1">
       <c r="A76" t="s" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" t="b" s="6">
         <v>0</v>
@@ -4846,28 +4850,30 @@
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
       <c r="K76" t="s" s="24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L76" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M76" t="s" s="20">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N76" t="s" s="20">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O76" t="s" s="20">
-        <v>166</v>
-      </c>
-      <c r="P76" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="P76" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="77" ht="13.65" customHeight="1">
       <c r="A77" t="s" s="4">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" t="b" s="6">
         <v>0</v>
@@ -4886,28 +4892,30 @@
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" t="s" s="24">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="20">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M77" t="s" s="20">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N77" t="s" s="20">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O77" t="s" s="20">
-        <v>172</v>
-      </c>
-      <c r="P77" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="P77" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="78" ht="13.65" customHeight="1">
       <c r="A78" t="s" s="4">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" t="b" s="6">
         <v>0</v>
@@ -4926,28 +4934,28 @@
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" t="s" s="24">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L78" t="s" s="20">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M78" t="s" s="20">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N78" t="s" s="20">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O78" t="s" s="20">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P78" s="21"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="4">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C79" t="b" s="6">
         <v>0</v>
@@ -4956,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s" s="7">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F79" t="b" s="6">
         <v>0</v>
@@ -4965,10 +4973,10 @@
         <v>30</v>
       </c>
       <c r="H79" t="s" s="20">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I79" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
@@ -4980,10 +4988,10 @@
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" t="b" s="6">
         <v>0</v>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="H80" s="21"/>
       <c r="I80" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
@@ -5012,10 +5020,10 @@
     </row>
     <row r="81" ht="13.65" customHeight="1">
       <c r="A81" t="s" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="C81" t="b" s="6">
         <v>0</v>
@@ -5032,7 +5040,7 @@
       </c>
       <c r="H81" s="21"/>
       <c r="I81" t="s" s="20">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>

--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -31,71 +31,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A28" authorId="0">
       <text>
         <r>
@@ -109,72 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not available in SpySchema</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F41" authorId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -196,63 +66,19 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>Socorro Dominguez:
-Make sure that ndb.chronologies information is Rowwise false</t>
+Original suggestion:
+Insert into 
+ndb.geochroncontrols.age
+However, geochroncontrols only has 2 columns: chroncontrolid and geochronid
+Instead, insert age value at:
+ndb.geochronology.age to obtain geochronid
+To insert age value, we need: 
+sampleid, geochrontypeid (need to add 137Cs to geochrontypes), age type as null
+After that, we can insert the chroncontrolied and geochronid to geochroncontrols.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Make sure that ndb.chronologies information is Rowwise false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not on SchemaSpy - clarify how does this work with Pb210</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Not sure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,33 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Clarify again why this is OK to be NULL many times; how is it not the same value as ndb.data.value?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F65" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Socorro Dominguez:
-Clarify again why this is OK to be NULL many times; how is it not the same value as ndb.data.value?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A66" authorId="0">
+    <comment ref="A64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="0">
+    <comment ref="E64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,423 +161,423 @@
     <t>ndb.datasets.datasetname</t>
   </si>
   <si>
+    <t>datasettypeid</t>
+  </si>
+  <si>
+    <t>ndb.datasettypes.datasettypeid</t>
+  </si>
+  <si>
+    <t>Lead 210</t>
+  </si>
+  <si>
+    <t>databasename</t>
+  </si>
+  <si>
+    <t>ndb.datasetdatabases.databasename</t>
+  </si>
+  <si>
+    <t>St. Croix Watershed Research Station of the Science Museum of Minnesota</t>
+  </si>
+  <si>
+    <t>labnumber</t>
+  </si>
+  <si>
+    <t>ndb.samples.labnumber</t>
+  </si>
+  <si>
+    <t>Rowwise</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>FormatOrRange</t>
+  </si>
+  <si>
+    <t>Vocab</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Taxonname</t>
+  </si>
+  <si>
+    <t>Taxonid</t>
+  </si>
+  <si>
+    <t>Unitcolumn</t>
+  </si>
+  <si>
+    <t>Uncertaintycolumn</t>
+  </si>
+  <si>
+    <t>Uncertaintyunitcolumn</t>
+  </si>
+  <si>
+    <t>UncertaintyBasis</t>
+  </si>
+  <si>
+    <t>Site.name</t>
+  </si>
+  <si>
+    <t>ndb.sites.sitename</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>ndb.sites.siteid</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Geographic.coordinates</t>
+  </si>
+  <si>
+    <t>ndb.sites.geog</t>
+  </si>
+  <si>
+    <t>coordinates (lat,long)</t>
+  </si>
+  <si>
+    <t>—NA—</t>
+  </si>
+  <si>
+    <t>ndb.sites.altitude</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ndb.sites.area</t>
+  </si>
+  <si>
+    <t>ndb.sites.sitedescription</t>
+  </si>
+  <si>
+    <t>ndb.sites.notes</t>
+  </si>
+  <si>
+    <t>ndb.sites.recdatecreated</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ndb.sites.recdatemodified</t>
+  </si>
+  <si>
+    <t>Core.number.or.code</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.core</t>
+  </si>
+  <si>
+    <t>Handle name will be built from Core when Handle is not given.</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.handle</t>
+  </si>
+  <si>
+    <t>If a Handle is given, make sure you want to overwrite or add to update it’s contents.</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colltypeid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.depenvtid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.collunitname</t>
+  </si>
+  <si>
+    <t>Date.of.core.collection</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colldate</t>
+  </si>
+  <si>
+    <t>%Y-%m-%d</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.colldevice</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpslatitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpslongitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpsaltitude</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.gpserror</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.waterdepth</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.substrateid</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.slopeaspect</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.slopeangle</t>
+  </si>
+  <si>
+    <t>Coordinate.precision</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.location</t>
+  </si>
+  <si>
+    <t>[‘core-site','GPS','core-site approximate','lake center’]</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.notes</t>
+  </si>
+  <si>
+    <t>Site.coordinates</t>
+  </si>
+  <si>
+    <t>ndb.collectionunits.geog</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.analysisunitname</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.depth</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.thickness</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.faciesid</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.mixed</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.igsn</t>
+  </si>
+  <si>
+    <t>ndb.analysisunits.notes</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.agetypeid</t>
+  </si>
+  <si>
+    <t>Modeler</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.contactid</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.isdefault</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.chronologyname</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.dateprepared</t>
+  </si>
+  <si>
+    <t>X210.LeadModel</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.agemodel</t>
+  </si>
+  <si>
+    <t>[‘CRS', 'CIC', 'CF:CS', 'PLUM', ‘other']</t>
+  </si>
+  <si>
+    <t>X210.Lead.Model.Notes</t>
+  </si>
+  <si>
+    <t>ndb.chronologies.notes</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.depth</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.thickness</t>
+  </si>
+  <si>
+    <t>Depth.position</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.position</t>
+  </si>
+  <si>
+    <t>[‘Top', 'Mid', ‘Bottom']</t>
+  </si>
+  <si>
+    <t>Verify table?</t>
+  </si>
+  <si>
+    <t>X210Pb.Date</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.age</t>
+  </si>
+  <si>
+    <t>Use same column as sampleages</t>
+  </si>
+  <si>
+    <t>X210Pb.Date.Units</t>
+  </si>
+  <si>
+    <t>Error..210Pb.Date.</t>
+  </si>
+  <si>
+    <t>Error..210Pb.Date..1SD.Units</t>
+  </si>
+  <si>
+    <t>1SD</t>
+  </si>
+  <si>
+    <t>ndb.chroncontrols.notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Assigned.137Cs.Date</t>
+  </si>
+  <si>
+    <t>ndb.geochronology.age</t>
+  </si>
+  <si>
+    <t>137Cs</t>
+  </si>
+  <si>
+    <t>Assigned.137Cs.Date.Units</t>
+  </si>
+  <si>
+    <t>ndb.datasets.datasettypeid</t>
+  </si>
+  <si>
+    <t>ndb.datasets.notes</t>
+  </si>
+  <si>
+    <t>ndb.datasettype.datasettype</t>
+  </si>
+  <si>
+    <t>[‘fixed’]</t>
+  </si>
+  <si>
+    <t>Principal.Investigator.s.</t>
+  </si>
+  <si>
+    <t>ndb.datasetpis.contactid</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>ndb.sampleanalysts.contactid</t>
+  </si>
+  <si>
+    <t>ndb.datasetdatabases.databaseid</t>
+  </si>
+  <si>
+    <t>ndb.constituentdatabases.database</t>
+  </si>
+  <si>
+    <t>ndb.samples.samplename</t>
+  </si>
+  <si>
+    <t>ndb.samples.analysisdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndb.samples.preparationmethod </t>
+  </si>
+  <si>
+    <t>ndb.samples.notes</t>
+  </si>
+  <si>
+    <t>ndb.samples.sampledate</t>
+  </si>
+  <si>
+    <t>ndb.samples.taxonid</t>
+  </si>
+  <si>
+    <t>ndb.sampleages.age</t>
+  </si>
+  <si>
+    <t>ndb.data.variableelementid</t>
+  </si>
+  <si>
+    <t>ndb.variables.variablecontextid</t>
+  </si>
+  <si>
+    <t>Dry.Density</t>
+  </si>
+  <si>
+    <t>ndb.data.value</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>bulk density</t>
+  </si>
+  <si>
+    <t>Dry.Density.Units</t>
+  </si>
+  <si>
+    <t>Cumulative.dry.mass</t>
+  </si>
+  <si>
+    <t>cumulative dry mass</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Cumulative.dry.mass.units</t>
+  </si>
+  <si>
+    <t>Total.210Pb.Alpha..synonym.Total.210Po.</t>
+  </si>
+  <si>
+    <t>210Pb/210Po</t>
+  </si>
+  <si>
+    <t>Total.210Pb.Alpha..synonym.Total.210Po..Units</t>
+  </si>
+  <si>
+    <t>Error..total.210Pb.alpha.</t>
+  </si>
+  <si>
+    <t>Error..total.210Pb.alpha..units</t>
+  </si>
+  <si>
+    <t>Total.210Pb.Gamma</t>
+  </si>
+  <si>
     <t>210Pb</t>
   </si>
   <si>
-    <t>datasettypeid</t>
-  </si>
-  <si>
-    <t>ndb.datasettypes.datasettypeid</t>
-  </si>
-  <si>
-    <t>Geochronologic</t>
-  </si>
-  <si>
-    <t>databaseid</t>
-  </si>
-  <si>
-    <t>ndb.datasetdatabases.databaseid</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>labnumber</t>
-  </si>
-  <si>
-    <t>ndb.samples.labnumber</t>
-  </si>
-  <si>
-    <t>Rowwise</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>FormatOrRange</t>
-  </si>
-  <si>
-    <t>Vocab</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Taxonname</t>
-  </si>
-  <si>
-    <t>Taxonid</t>
-  </si>
-  <si>
-    <t>Unitcolumn</t>
-  </si>
-  <si>
-    <t>Uncertaintycolumn</t>
-  </si>
-  <si>
-    <t>Uncertaintyunitcolumn</t>
-  </si>
-  <si>
-    <t>UncertaintyBasis</t>
-  </si>
-  <si>
-    <t>Site.name</t>
-  </si>
-  <si>
-    <t>ndb.sites.sitename</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Site ID</t>
-  </si>
-  <si>
-    <t>ndb.sites.siteid</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Geographic.coordinates</t>
-  </si>
-  <si>
-    <t>ndb.sites.geog</t>
-  </si>
-  <si>
-    <t>coordinates (lat,long)</t>
-  </si>
-  <si>
-    <t>—NA—</t>
-  </si>
-  <si>
-    <t>ndb.sites.altitude</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>ndb.sites.area</t>
-  </si>
-  <si>
-    <t>ndb.sites.sitedescription</t>
-  </si>
-  <si>
-    <t>ndb.sites.notes</t>
-  </si>
-  <si>
-    <t>ndb.sites.recdatecreated</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ndb.sites.recdatemodified</t>
-  </si>
-  <si>
-    <t>Core.number.or.code</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.core</t>
-  </si>
-  <si>
-    <t>Handle</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.handle</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colltypeid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.depenvtid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.collunitname</t>
-  </si>
-  <si>
-    <t>Date.of.core.collection</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colldate</t>
-  </si>
-  <si>
-    <t>%Y-%m-%d</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.colldevice</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpslatitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpslongitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpsaltitude</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.gpserror</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.waterdepth</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.substrateid</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.slopeaspect</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.slopeangle</t>
-  </si>
-  <si>
-    <t>Coordinate.precision</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.location</t>
-  </si>
-  <si>
-    <t>[‘core-site','GPS','core-site approximate','lake center’]</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.notes</t>
-  </si>
-  <si>
-    <t>Site.coordinates</t>
-  </si>
-  <si>
-    <t>ndb.collectionunits.geog</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.analysisunitname</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.depth</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.thickness</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.faciesid</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.mixed</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.igsn</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.notes</t>
-  </si>
-  <si>
-    <t>Depth.position</t>
-  </si>
-  <si>
-    <t>ndb.analysisunits.position</t>
-  </si>
-  <si>
-    <t>[‘Top', 'Mid', ‘Bottom']</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.agetypeid</t>
-  </si>
-  <si>
-    <t>Modeler</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.contactid</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.isdefault</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.chronologyname</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.dateprepared</t>
-  </si>
-  <si>
-    <t>X210.LeadModel</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.agemodel</t>
-  </si>
-  <si>
-    <t>[‘CRS', 'CIC', 'CF:CS', 'PLUM', ‘other']</t>
-  </si>
-  <si>
-    <t>X210.Lead.Model.Notes</t>
-  </si>
-  <si>
-    <t>ndb.chronologies.notes</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.depth</t>
-  </si>
-  <si>
-    <t>Use same column as ndb.analysisunits ?</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.thickness</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.position</t>
-  </si>
-  <si>
-    <t>X210Pb.Date</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.age</t>
-  </si>
-  <si>
-    <t>Use same column as sampleages</t>
-  </si>
-  <si>
-    <t>X210Pb.Date.Units</t>
-  </si>
-  <si>
-    <t>Error..210Pb.Date.</t>
-  </si>
-  <si>
-    <t>Error..210Pb.Date..1SD.Units</t>
-  </si>
-  <si>
-    <t>1SD</t>
-  </si>
-  <si>
-    <t>ndb.chroncontrols.notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ndb.geochroncontrols.geochronid</t>
-  </si>
-  <si>
-    <t>Assigned.137Cs.Date</t>
-  </si>
-  <si>
-    <t>ndb.geochroncontrols.age</t>
-  </si>
-  <si>
-    <t>137Cs</t>
-  </si>
-  <si>
-    <t>Assigned.137Cs.Date.Units</t>
-  </si>
-  <si>
-    <t>ndb.datasets.datasettypeid</t>
-  </si>
-  <si>
-    <t>ndb.datasets.notes</t>
-  </si>
-  <si>
-    <t>ndb.datasettype.datasettype</t>
-  </si>
-  <si>
-    <t>[‘fixed’]</t>
-  </si>
-  <si>
-    <t>Pb210</t>
-  </si>
-  <si>
-    <t>Principal.Investigator.s.</t>
-  </si>
-  <si>
-    <t>ndb.datasetpis.contactid</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>ndb.sampleanalysts.contactid</t>
-  </si>
-  <si>
-    <t>ndb.constituentdatabases.database</t>
-  </si>
-  <si>
-    <t>ndb.samples.samplename</t>
-  </si>
-  <si>
-    <t>ndb.samples.analysisdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndb.samples.preparationmethod </t>
-  </si>
-  <si>
-    <t>ndb.samples.notes</t>
-  </si>
-  <si>
-    <t>ndb.samples.sampledate</t>
-  </si>
-  <si>
-    <t>ndb.samples.taxonid</t>
-  </si>
-  <si>
-    <t>ndb.sampleages.age</t>
-  </si>
-  <si>
-    <t>ndb.data.variableelementid</t>
-  </si>
-  <si>
-    <t>ndb.data.variablecontextid</t>
-  </si>
-  <si>
-    <t>Dry.Density</t>
-  </si>
-  <si>
-    <t>ndb.data.value</t>
-  </si>
-  <si>
-    <t>&gt; 0</t>
-  </si>
-  <si>
-    <t>bulk density</t>
-  </si>
-  <si>
-    <t>Dry.Density.Units</t>
-  </si>
-  <si>
-    <t>Cumulative.dry.mass</t>
-  </si>
-  <si>
-    <t>cumulative dry mass</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Cumulative.dry.mass.units</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Alpha..synonym.Total.210Po.</t>
-  </si>
-  <si>
-    <t>210Pb/210Po</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Alpha..synonym.Total.210Po..Units</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.alpha.</t>
-  </si>
-  <si>
-    <t>Error..total.210Pb.alpha..units</t>
-  </si>
-  <si>
-    <t>Total.210Pb.Gamma</t>
-  </si>
-  <si>
     <t>Total.210Pb.Gamma.Units</t>
   </si>
   <si>
@@ -880,10 +680,10 @@
     <t>ndb.publications.doi</t>
   </si>
   <si>
+    <t>^10.\d{4,9}/[-._;()/:A-Z0-9]+$</t>
+  </si>
+  <si>
     <t>The format is the regex for a DOI</t>
-  </si>
-  <si>
-    <t>^10.\d{4,9}/[-._;()/:A-Z0-9]+$</t>
   </si>
   <si>
     <t>Location</t>
@@ -929,7 +729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -971,6 +771,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1143,9 +950,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1174,6 +978,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2295,17 +2102,15 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" t="s" s="7">
-        <v>8</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>9</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>10</v>
       </c>
       <c r="C3" t="b" s="6">
         <v>1</v>
@@ -2314,16 +2119,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>12</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>13</v>
       </c>
       <c r="C4" t="b" s="6">
         <v>1</v>
@@ -2331,19 +2136,17 @@
       <c r="D4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>14</v>
-      </c>
+      <c r="E4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="5">
         <v>15</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>16</v>
       </c>
       <c r="C5" t="b" s="6">
         <v>0</v>
@@ -2355,44 +2158,44 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2410,22 +2213,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="19" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="19" customWidth="1"/>
-    <col min="5" max="5" width="24.8516" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.17188" style="19" customWidth="1"/>
-    <col min="7" max="13" width="24.8516" style="19" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="19" customWidth="1"/>
-    <col min="15" max="16" width="31.5" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="11.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="21" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.17188" style="18" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="18" customWidth="1"/>
+    <col min="7" max="13" width="24.8516" style="18" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
+    <col min="15" max="16" width="31.5" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="11.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.6" customHeight="1">
@@ -2441,10 +2244,10 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s" s="3">
+      <c r="E1" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s" s="2">
         <v>17</v>
       </c>
       <c r="G1" t="s" s="2">
@@ -2454,36 +2257,36 @@
         <v>19</v>
       </c>
       <c r="I1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="N1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="O1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="P1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="P1" t="s" s="2">
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>29</v>
       </c>
       <c r="C2" t="b" s="6">
         <v>1</v>
@@ -2491,15 +2294,15 @@
       <c r="D2" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="E2" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -2509,11 +2312,11 @@
       <c r="P2" s="21"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>31</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>32</v>
       </c>
       <c r="C3" t="b" s="6">
         <v>0</v>
@@ -2521,15 +2324,15 @@
       <c r="D3" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s" s="20">
-        <v>33</v>
-      </c>
+      <c r="E3" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -2539,11 +2342,11 @@
       <c r="P3" s="21"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="A4" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="5">
         <v>34</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>35</v>
       </c>
       <c r="C4" t="b" s="6">
         <v>1</v>
@@ -2551,15 +2354,15 @@
       <c r="D4" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
+      <c r="E4" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -2569,27 +2372,27 @@
       <c r="P4" s="21"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="A5" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="C5" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s" s="20">
         <v>38</v>
       </c>
-      <c r="C5" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -2599,27 +2402,27 @@
       <c r="P5" s="21"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>37</v>
+      <c r="A6" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D6" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E6" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -2629,27 +2432,27 @@
       <c r="P6" s="21"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>37</v>
+      <c r="A7" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D7" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -2659,27 +2462,27 @@
       <c r="P7" s="21"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>37</v>
+      <c r="A8" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D8" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -2689,27 +2492,27 @@
       <c r="P8" s="21"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>37</v>
+      <c r="A9" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="5">
+        <v>42</v>
+      </c>
+      <c r="C9" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s" s="20">
         <v>43</v>
       </c>
-      <c r="C9" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s" s="20">
-        <v>44</v>
-      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -2719,27 +2522,27 @@
       <c r="P9" s="21"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>37</v>
+      <c r="A10" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D10" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s" s="20">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -2749,11 +2552,11 @@
       <c r="P10" s="21"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="5">
         <v>46</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>47</v>
       </c>
       <c r="C11" t="b" s="6">
         <v>1</v>
@@ -2761,15 +2564,17 @@
       <c r="D11" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="E11" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="I11" t="s" s="7">
+        <v>47</v>
+      </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -2779,7 +2584,7 @@
       <c r="P11" s="21"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="19">
         <v>48</v>
       </c>
       <c r="B12" t="s" s="5">
@@ -2791,15 +2596,17 @@
       <c r="D12" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="E12" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="I12" t="s" s="7">
+        <v>50</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -2809,11 +2616,11 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>37</v>
+      <c r="A13" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="b" s="6">
         <v>0</v>
@@ -2821,15 +2628,15 @@
       <c r="D13" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s" s="20">
-        <v>33</v>
-      </c>
+      <c r="E13" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -2839,11 +2646,11 @@
       <c r="P13" s="21"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="4">
-        <v>37</v>
+      <c r="A14" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="b" s="6">
         <v>0</v>
@@ -2851,15 +2658,15 @@
       <c r="D14" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s" s="20">
-        <v>33</v>
-      </c>
+      <c r="E14" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -2869,11 +2676,11 @@
       <c r="P14" s="21"/>
     </row>
     <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>37</v>
+      <c r="A15" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" t="b" s="6">
         <v>0</v>
@@ -2881,15 +2688,15 @@
       <c r="D15" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="E15" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -2899,29 +2706,29 @@
       <c r="P15" s="21"/>
     </row>
     <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>53</v>
+      <c r="A16" t="s" s="19">
+        <v>54</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D16" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" t="b" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s" s="20">
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s" s="20">
-        <v>55</v>
-      </c>
-      <c r="I16" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -2931,27 +2738,27 @@
       <c r="P16" s="21"/>
     </row>
     <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" t="s" s="4">
-        <v>37</v>
+      <c r="A17" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D17" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -2961,27 +2768,27 @@
       <c r="P17" s="21"/>
     </row>
     <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" t="s" s="4">
-        <v>37</v>
+      <c r="A18" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D18" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -2991,27 +2798,27 @@
       <c r="P18" s="21"/>
     </row>
     <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" t="s" s="4">
-        <v>37</v>
+      <c r="A19" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D19" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E19" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -3021,27 +2828,27 @@
       <c r="P19" s="21"/>
     </row>
     <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>37</v>
+      <c r="A20" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D20" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E20" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -3051,27 +2858,27 @@
       <c r="P20" s="21"/>
     </row>
     <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>37</v>
+      <c r="A21" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D21" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -3081,27 +2888,27 @@
       <c r="P21" s="21"/>
     </row>
     <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>37</v>
+      <c r="A22" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D22" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E22" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -3111,27 +2918,27 @@
       <c r="P22" s="21"/>
     </row>
     <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>37</v>
+      <c r="A23" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D23" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
@@ -3141,27 +2948,27 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>37</v>
+      <c r="A24" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D24" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E24" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -3171,27 +2978,27 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>37</v>
+      <c r="A25" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D25" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E25" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -3201,11 +3008,11 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" ht="13.65" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>65</v>
+      <c r="A26" t="s" s="19">
+        <v>66</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="b" s="6">
         <v>0</v>
@@ -3213,17 +3020,17 @@
       <c r="D26" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" t="s" s="20">
-        <v>67</v>
-      </c>
+      <c r="E26" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" t="s" s="20">
+        <v>68</v>
+      </c>
+      <c r="I26" s="8"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -3233,27 +3040,27 @@
       <c r="P26" s="21"/>
     </row>
     <row r="27" ht="13.65" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>37</v>
+      <c r="A27" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D27" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -3263,11 +3070,11 @@
       <c r="P27" s="21"/>
     </row>
     <row r="28" ht="13.65" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>69</v>
+      <c r="A28" t="s" s="19">
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" t="b" s="6">
         <v>0</v>
@@ -3275,15 +3082,15 @@
       <c r="D28" t="b" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s" s="20">
-        <v>36</v>
-      </c>
+      <c r="E28" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s" s="20">
+        <v>35</v>
+      </c>
+      <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -3293,27 +3100,27 @@
       <c r="P28" s="21"/>
     </row>
     <row r="29" ht="13.65" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>37</v>
+      <c r="A29" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D29" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E29" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
@@ -3323,11 +3130,11 @@
       <c r="P29" s="21"/>
     </row>
     <row r="30" ht="13.65" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>72</v>
+      <c r="A30" t="s" s="19">
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="b" s="6">
         <v>1</v>
@@ -3335,15 +3142,15 @@
       <c r="D30" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" t="b" s="6">
+      <c r="E30" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G30" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="F30" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -3353,11 +3160,11 @@
       <c r="P30" s="21"/>
     </row>
     <row r="31" ht="13.65" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>74</v>
+      <c r="A31" t="s" s="19">
+        <v>75</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="b" s="6">
         <v>1</v>
@@ -3365,15 +3172,15 @@
       <c r="D31" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" t="b" s="6">
+      <c r="E31" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G31" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="F31" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -3383,27 +3190,27 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" ht="13.65" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>37</v>
+      <c r="A32" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D32" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
@@ -3413,27 +3220,27 @@
       <c r="P32" s="21"/>
     </row>
     <row r="33" ht="13.65" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>37</v>
+      <c r="A33" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D33" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s" s="20">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E33" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="G33" s="21"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
@@ -3443,27 +3250,27 @@
       <c r="P33" s="21"/>
     </row>
     <row r="34" ht="13.65" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>37</v>
+      <c r="A34" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D34" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
@@ -3473,27 +3280,27 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" ht="13.65" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>37</v>
+      <c r="A35" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D35" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E35" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -3503,8 +3310,8 @@
       <c r="P35" s="21"/>
     </row>
     <row r="36" ht="13.65" customHeight="1">
-      <c r="A36" t="s" s="4">
-        <v>81</v>
+      <c r="A36" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B36" t="s" s="5">
         <v>82</v>
@@ -3513,19 +3320,17 @@
         <v>0</v>
       </c>
       <c r="D36" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E36" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G36" s="21"/>
       <c r="H36" s="21"/>
-      <c r="I36" t="s" s="20">
-        <v>83</v>
-      </c>
+      <c r="I36" s="8"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
@@ -3535,8 +3340,8 @@
       <c r="P36" s="21"/>
     </row>
     <row r="37" ht="13.65" customHeight="1">
-      <c r="A37" t="s" s="4">
-        <v>37</v>
+      <c r="A37" t="s" s="19">
+        <v>83</v>
       </c>
       <c r="B37" t="s" s="5">
         <v>84</v>
@@ -3547,15 +3352,15 @@
       <c r="D37" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s" s="20">
-        <v>33</v>
-      </c>
+      <c r="E37" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G37" s="21"/>
       <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
@@ -3565,27 +3370,27 @@
       <c r="P37" s="21"/>
     </row>
     <row r="38" ht="13.65" customHeight="1">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="B38" t="s" s="5">
-        <v>86</v>
-      </c>
       <c r="C38" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D38" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s" s="20">
+        <v>79</v>
+      </c>
+      <c r="G38" s="21"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
@@ -3595,27 +3400,27 @@
       <c r="P38" s="21"/>
     </row>
     <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" t="s" s="4">
-        <v>37</v>
+      <c r="A39" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D39" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s" s="20">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E39" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -3625,27 +3430,27 @@
       <c r="P39" s="21"/>
     </row>
     <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" t="s" s="4">
-        <v>37</v>
+      <c r="A40" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D40" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="G40" s="21"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
@@ -3655,27 +3460,29 @@
       <c r="P40" s="21"/>
     </row>
     <row r="41" ht="13.65" customHeight="1">
-      <c r="A41" t="s" s="4">
-        <v>37</v>
+      <c r="A41" t="s" s="19">
+        <v>88</v>
       </c>
       <c r="B41" t="s" s="5">
         <v>89</v>
       </c>
       <c r="C41" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="I41" s="8"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
@@ -3685,29 +3492,27 @@
       <c r="P41" s="21"/>
     </row>
     <row r="42" ht="13.65" customHeight="1">
-      <c r="A42" t="s" s="4">
-        <v>90</v>
+      <c r="A42" t="s" s="19">
+        <v>91</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E42" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G42" s="21"/>
       <c r="H42" s="21"/>
-      <c r="I42" t="s" s="20">
-        <v>92</v>
-      </c>
+      <c r="I42" s="8"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
@@ -3717,27 +3522,27 @@
       <c r="P42" s="21"/>
     </row>
     <row r="43" ht="13.65" customHeight="1">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="19">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="B43" t="s" s="5">
-        <v>94</v>
-      </c>
       <c r="C43" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="E43" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
@@ -3747,11 +3552,11 @@
       <c r="P43" s="21"/>
     </row>
     <row r="44" ht="13.65" customHeight="1">
-      <c r="A44" t="s" s="4">
-        <v>72</v>
+      <c r="A44" t="s" s="19">
+        <v>75</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="b" s="6">
         <v>1</v>
@@ -3759,17 +3564,15 @@
       <c r="D44" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E44" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="F44" t="b" s="6">
+      <c r="E44" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G44" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="F44" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -3779,29 +3582,31 @@
       <c r="P44" s="21"/>
     </row>
     <row r="45" ht="13.65" customHeight="1">
-      <c r="A45" t="s" s="4">
-        <v>74</v>
+      <c r="A45" t="s" s="19">
+        <v>95</v>
       </c>
       <c r="B45" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="C45" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" t="s" s="20">
         <v>97</v>
       </c>
-      <c r="C45" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="D45" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="F45" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="I45" t="s" s="7">
+        <v>98</v>
+      </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -3811,11 +3616,11 @@
       <c r="P45" s="21"/>
     </row>
     <row r="46" ht="13.65" customHeight="1">
-      <c r="A46" t="s" s="4">
-        <v>81</v>
+      <c r="A46" t="s" s="19">
+        <v>99</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C46" t="b" s="6">
         <v>0</v>
@@ -3823,123 +3628,123 @@
       <c r="D46" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E46" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="F46" t="b" s="6">
+      <c r="E46" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G46" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="F46" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G46" s="21"/>
       <c r="H46" s="21"/>
-      <c r="I46" t="s" s="20">
-        <v>83</v>
+      <c r="I46" t="s" s="7">
+        <v>101</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="M46" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="N46" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="O46" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="P46" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="47" ht="13.65" customHeight="1">
-      <c r="A47" t="s" s="4">
-        <v>99</v>
+      <c r="A47" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C47" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D47" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="F47" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E47" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="21"/>
       <c r="M47" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="N47" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="O47" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="P47" t="s" s="20">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
     </row>
     <row r="48" ht="13.65" customHeight="1">
-      <c r="A48" t="s" s="4">
-        <v>37</v>
+      <c r="A48" t="s" s="19">
+        <v>108</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C48" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D48" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s" s="20">
-        <v>30</v>
-      </c>
+      <c r="F48" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G48" s="21"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="23"/>
+      <c r="K48" t="s" s="24">
+        <v>110</v>
+      </c>
       <c r="L48" s="21"/>
       <c r="M48" t="s" s="20">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
     </row>
     <row r="49" ht="13.65" customHeight="1">
-      <c r="A49" t="s" s="4">
-        <v>37</v>
+      <c r="A49" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C49" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D49" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G49" s="21"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -3947,42 +3752,38 @@
       <c r="P49" s="21"/>
     </row>
     <row r="50" ht="13.65" customHeight="1">
-      <c r="A50" t="s" s="4">
-        <v>109</v>
+      <c r="A50" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C50" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D50" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s" s="20">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E50" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="21"/>
-      <c r="K50" t="s" s="24">
-        <v>111</v>
-      </c>
+      <c r="K50" s="21"/>
       <c r="L50" s="21"/>
-      <c r="M50" t="s" s="20">
-        <v>112</v>
-      </c>
+      <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
     </row>
     <row r="51" ht="13.65" customHeight="1">
-      <c r="A51" t="s" s="4">
-        <v>37</v>
+      <c r="A51" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B51" t="s" s="5">
         <v>113</v>
@@ -3991,17 +3792,17 @@
         <v>0</v>
       </c>
       <c r="D51" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G51" s="21"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
@@ -4011,28 +3812,32 @@
       <c r="P51" s="21"/>
     </row>
     <row r="52" ht="13.65" customHeight="1">
-      <c r="A52" t="s" s="4">
-        <v>37</v>
+      <c r="A52" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C52" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D52" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E52" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" t="s" s="7">
+        <v>10</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
@@ -4041,27 +3846,29 @@
       <c r="P52" s="21"/>
     </row>
     <row r="53" ht="13.65" customHeight="1">
-      <c r="A53" t="s" s="4">
-        <v>37</v>
+      <c r="A53" t="s" s="19">
+        <v>116</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E53" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I53" s="8"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
@@ -4071,32 +3878,30 @@
       <c r="P53" s="21"/>
     </row>
     <row r="54" ht="13.65" customHeight="1">
-      <c r="A54" t="s" s="4">
-        <v>37</v>
+      <c r="A54" t="s" s="19">
+        <v>118</v>
       </c>
       <c r="B54" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="C54" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" t="s" s="20">
         <v>115</v>
       </c>
-      <c r="C54" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="J54" t="s" s="20">
-        <v>117</v>
-      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
@@ -4105,30 +3910,30 @@
       <c r="P54" s="21"/>
     </row>
     <row r="55" ht="13.65" customHeight="1">
-      <c r="A55" t="s" s="4">
-        <v>118</v>
+      <c r="A55" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G55" s="21"/>
       <c r="H55" s="21"/>
-      <c r="I55" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="J55" s="21"/>
+      <c r="I55" s="8"/>
+      <c r="J55" t="s" s="7">
+        <v>13</v>
+      </c>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
@@ -4137,8 +3942,8 @@
       <c r="P55" s="21"/>
     </row>
     <row r="56" ht="13.65" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>120</v>
+      <c r="A56" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B56" t="s" s="5">
         <v>121</v>
@@ -4147,20 +3952,20 @@
         <v>0</v>
       </c>
       <c r="D56" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="J56" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E56" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
@@ -4169,27 +3974,27 @@
       <c r="P56" s="21"/>
     </row>
     <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>37</v>
+      <c r="A57" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C57" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E57" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G57" s="21"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
@@ -4199,32 +4004,28 @@
       <c r="P57" s="21"/>
     </row>
     <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>37</v>
+      <c r="A58" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E58" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="21"/>
-      <c r="I58" t="s" s="20">
-        <v>116</v>
-      </c>
-      <c r="J58" t="s" s="20">
-        <v>1</v>
-      </c>
+      <c r="I58" s="8"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
@@ -4233,27 +4034,27 @@
       <c r="P58" s="21"/>
     </row>
     <row r="59" ht="13.65" customHeight="1">
-      <c r="A59" t="s" s="4">
-        <v>37</v>
+      <c r="A59" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C59" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D59" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E59" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G59" s="21"/>
       <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
@@ -4263,8 +4064,8 @@
       <c r="P59" s="21"/>
     </row>
     <row r="60" ht="13.65" customHeight="1">
-      <c r="A60" t="s" s="4">
-        <v>37</v>
+      <c r="A60" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B60" t="s" s="5">
         <v>124</v>
@@ -4273,17 +4074,17 @@
         <v>0</v>
       </c>
       <c r="D60" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s" s="20">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E60" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G60" s="21"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="I60" s="8"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
@@ -4293,27 +4094,27 @@
       <c r="P60" s="21"/>
     </row>
     <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" t="s" s="4">
-        <v>37</v>
+      <c r="A61" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C61" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D61" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E61" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
@@ -4323,27 +4124,27 @@
       <c r="P61" s="21"/>
     </row>
     <row r="62" ht="13.65" customHeight="1">
-      <c r="A62" t="s" s="4">
-        <v>37</v>
+      <c r="A62" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D62" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E62" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="G62" s="21"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
@@ -4353,27 +4154,27 @@
       <c r="P62" s="21"/>
     </row>
     <row r="63" ht="13.65" customHeight="1">
-      <c r="A63" t="s" s="4">
-        <v>37</v>
+      <c r="A63" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D63" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E63" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G63" s="21"/>
       <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
@@ -4383,57 +4184,65 @@
       <c r="P63" s="21"/>
     </row>
     <row r="64" ht="13.65" customHeight="1">
-      <c r="A64" t="s" s="4">
-        <v>37</v>
+      <c r="A64" t="s" s="19">
+        <v>99</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D64" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s" s="20">
-        <v>44</v>
-      </c>
+      <c r="F64" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G64" s="21"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
+      <c r="M64" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="N64" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="O64" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="P64" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="65" ht="13.65" customHeight="1">
-      <c r="A65" t="s" s="4">
-        <v>37</v>
+      <c r="A65" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D65" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s" s="20">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E65" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="G65" s="21"/>
       <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
@@ -4443,541 +4252,537 @@
       <c r="P65" s="21"/>
     </row>
     <row r="66" ht="13.65" customHeight="1">
-      <c r="A66" t="s" s="4">
-        <v>99</v>
+      <c r="A66" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D66" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E66" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G66" s="21"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
-      <c r="M66" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="N66" t="s" s="20">
-        <v>103</v>
-      </c>
-      <c r="O66" t="s" s="20">
-        <v>104</v>
-      </c>
-      <c r="P66" t="s" s="20">
-        <v>105</v>
-      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
     </row>
     <row r="67" ht="13.65" customHeight="1">
-      <c r="A67" t="s" s="4">
-        <v>37</v>
+      <c r="A67" t="s" s="19">
+        <v>131</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C67" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="D67" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" t="b" s="6">
-        <v>1</v>
+      <c r="F67" t="s" s="20">
+        <v>38</v>
       </c>
       <c r="G67" t="s" s="20">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
+      <c r="K67" t="s" s="20">
+        <v>134</v>
+      </c>
+      <c r="L67" s="22">
+        <v>5782</v>
+      </c>
+      <c r="M67" t="s" s="20">
+        <v>135</v>
+      </c>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
-      <c r="A68" t="s" s="4">
-        <v>37</v>
+      <c r="A68" t="s" s="19">
+        <v>136</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="D68" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" t="b" s="6">
-        <v>1</v>
+      <c r="F68" t="s" s="20">
+        <v>38</v>
       </c>
       <c r="G68" t="s" s="20">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="K68" t="s" s="20">
+        <v>137</v>
+      </c>
+      <c r="L68" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="M68" t="s" s="20">
+        <v>139</v>
+      </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="19">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="C69" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s" s="20">
         <v>133</v>
       </c>
-      <c r="C69" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="21"/>
       <c r="K69" t="s" s="20">
-        <v>135</v>
-      </c>
-      <c r="L69" s="22">
-        <v>5782</v>
+        <v>141</v>
+      </c>
+      <c r="L69" t="s" s="20">
+        <v>138</v>
       </c>
       <c r="M69" t="s" s="20">
-        <v>136</v>
-      </c>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="N69" t="s" s="20">
+        <v>143</v>
+      </c>
+      <c r="O69" t="s" s="20">
+        <v>144</v>
+      </c>
       <c r="P69" s="21"/>
     </row>
     <row r="70" ht="13.65" customHeight="1">
-      <c r="A70" t="s" s="4">
-        <v>137</v>
+      <c r="A70" t="s" s="19">
+        <v>145</v>
       </c>
       <c r="B70" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="C70" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s" s="20">
         <v>133</v>
       </c>
-      <c r="C70" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b" s="6">
+      <c r="H70" s="21"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="21"/>
+      <c r="K70" t="s" s="24">
+        <v>146</v>
+      </c>
+      <c r="L70" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="M70" t="s" s="20">
+        <v>147</v>
+      </c>
+      <c r="N70" t="s" s="20">
+        <v>148</v>
+      </c>
+      <c r="O70" t="s" s="20">
+        <v>149</v>
+      </c>
+      <c r="P70" s="21"/>
+    </row>
+    <row r="71" ht="13.65" customHeight="1">
+      <c r="A71" t="s" s="19">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="C71" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" t="b" s="6">
+      <c r="F71" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G71" t="s" s="20">
+        <v>133</v>
+      </c>
+      <c r="H71" s="21"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="21"/>
+      <c r="K71" t="s" s="24">
+        <v>151</v>
+      </c>
+      <c r="L71" t="s" s="20">
+        <v>138</v>
+      </c>
+      <c r="M71" t="s" s="20">
+        <v>152</v>
+      </c>
+      <c r="N71" t="s" s="20">
+        <v>153</v>
+      </c>
+      <c r="O71" t="s" s="20">
+        <v>154</v>
+      </c>
+      <c r="P71" s="21"/>
+    </row>
+    <row r="72" ht="13.65" customHeight="1">
+      <c r="A72" t="s" s="19">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="C72" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="G70" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" t="s" s="20">
-        <v>138</v>
-      </c>
-      <c r="L70" t="s" s="20">
-        <v>139</v>
-      </c>
-      <c r="M70" t="s" s="20">
-        <v>140</v>
-      </c>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-    </row>
-    <row r="71" ht="13.65" customHeight="1">
-      <c r="A71" t="s" s="4">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s" s="5">
+      <c r="F72" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s" s="20">
         <v>133</v>
       </c>
-      <c r="C71" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" t="s" s="20">
-        <v>142</v>
-      </c>
-      <c r="L71" t="s" s="20">
-        <v>139</v>
-      </c>
-      <c r="M71" t="s" s="20">
-        <v>143</v>
-      </c>
-      <c r="N71" t="s" s="20">
-        <v>144</v>
-      </c>
-      <c r="O71" t="s" s="20">
-        <v>145</v>
-      </c>
-      <c r="P71" s="21"/>
-    </row>
-    <row r="72" ht="13.65" customHeight="1">
-      <c r="A72" t="s" s="4">
-        <v>146</v>
-      </c>
-      <c r="B72" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="C72" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="8"/>
       <c r="J72" s="21"/>
       <c r="K72" t="s" s="24">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="L72" t="s" s="20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M72" t="s" s="20">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N72" t="s" s="20">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O72" t="s" s="20">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P72" s="21"/>
     </row>
     <row r="73" ht="13.65" customHeight="1">
-      <c r="A73" t="s" s="4">
-        <v>150</v>
+      <c r="A73" t="s" s="19">
+        <v>160</v>
       </c>
       <c r="B73" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="C73" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s" s="20">
         <v>133</v>
       </c>
-      <c r="C73" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H73" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="8"/>
       <c r="J73" s="21"/>
       <c r="K73" t="s" s="24">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M73" t="s" s="20">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="N73" t="s" s="20">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O73" t="s" s="20">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P73" s="21"/>
     </row>
     <row r="74" ht="13.65" customHeight="1">
-      <c r="A74" t="s" s="4">
-        <v>155</v>
+      <c r="A74" t="s" s="19">
+        <v>164</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D74" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I74" s="21"/>
+      <c r="F74" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="8"/>
       <c r="J74" s="21"/>
       <c r="K74" t="s" s="24">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L74" t="s" s="20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M74" t="s" s="20">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="N74" t="s" s="20">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="20">
-        <v>159</v>
-      </c>
-      <c r="P74" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="P74" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" ht="13.65" customHeight="1">
-      <c r="A75" t="s" s="4">
-        <v>160</v>
+      <c r="A75" t="s" s="19">
+        <v>168</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D75" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H75" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="I75" s="21"/>
+      <c r="F75" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="21"/>
       <c r="K75" t="s" s="24">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="L75" t="s" s="20">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="M75" t="s" s="20">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N75" t="s" s="20">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="O75" t="s" s="20">
-        <v>163</v>
-      </c>
-      <c r="P75" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="P75" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="76" ht="13.65" customHeight="1">
-      <c r="A76" t="s" s="4">
-        <v>164</v>
+      <c r="A76" t="s" s="19">
+        <v>174</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D76" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="F76" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G76" s="21"/>
       <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="8"/>
       <c r="J76" s="21"/>
       <c r="K76" t="s" s="24">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L76" t="s" s="20">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M76" t="s" s="20">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N76" t="s" s="20">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="O76" t="s" s="20">
-        <v>167</v>
-      </c>
-      <c r="P76" t="s" s="20">
-        <v>105</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P76" s="21"/>
     </row>
     <row r="77" ht="13.65" customHeight="1">
-      <c r="A77" t="s" s="4">
-        <v>168</v>
+      <c r="A77" t="s" s="19">
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C77" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D77" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E77" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s" s="20">
+        <v>29</v>
       </c>
       <c r="G77" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="H77" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I77" t="s" s="7">
+        <v>182</v>
+      </c>
       <c r="J77" s="21"/>
-      <c r="K77" t="s" s="24">
-        <v>169</v>
-      </c>
-      <c r="L77" t="s" s="20">
-        <v>170</v>
-      </c>
-      <c r="M77" t="s" s="20">
-        <v>171</v>
-      </c>
-      <c r="N77" t="s" s="20">
-        <v>172</v>
-      </c>
-      <c r="O77" t="s" s="20">
-        <v>173</v>
-      </c>
-      <c r="P77" t="s" s="20">
-        <v>105</v>
-      </c>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
     </row>
     <row r="78" ht="13.65" customHeight="1">
-      <c r="A78" t="s" s="4">
-        <v>174</v>
+      <c r="A78" t="s" s="19">
+        <v>183</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C78" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D78" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E78" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I78" s="8"/>
       <c r="J78" s="21"/>
-      <c r="K78" t="s" s="24">
-        <v>175</v>
-      </c>
-      <c r="L78" t="s" s="20">
-        <v>139</v>
-      </c>
-      <c r="M78" t="s" s="20">
-        <v>176</v>
-      </c>
-      <c r="N78" t="s" s="20">
-        <v>177</v>
-      </c>
-      <c r="O78" t="s" s="20">
-        <v>178</v>
-      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
       <c r="P78" s="21"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
-      <c r="A79" t="s" s="4">
-        <v>179</v>
+      <c r="A79" t="s" s="19">
+        <v>185</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C79" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D79" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s" s="7">
-        <v>181</v>
-      </c>
-      <c r="F79" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G79" s="21"/>
       <c r="H79" t="s" s="20">
-        <v>182</v>
-      </c>
-      <c r="I79" t="s" s="20">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="I79" s="8"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
@@ -4987,29 +4792,29 @@
       <c r="P79" s="21"/>
     </row>
     <row r="80" ht="13.65" customHeight="1">
-      <c r="A80" t="s" s="4">
-        <v>183</v>
+      <c r="A80" t="s" s="19">
+        <v>186</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C80" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D80" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H80" s="21"/>
-      <c r="I80" t="s" s="20">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E80" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="I80" s="8"/>
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
       <c r="L80" s="21"/>
@@ -5019,29 +4824,27 @@
       <c r="P80" s="21"/>
     </row>
     <row r="81" ht="13.65" customHeight="1">
-      <c r="A81" t="s" s="4">
-        <v>185</v>
+      <c r="A81" t="s" s="19">
+        <v>189</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C81" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D81" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E81" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G81" s="21"/>
       <c r="H81" s="21"/>
-      <c r="I81" t="s" s="20">
-        <v>116</v>
-      </c>
+      <c r="I81" s="8"/>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
@@ -5051,29 +4854,27 @@
       <c r="P81" s="21"/>
     </row>
     <row r="82" ht="13.65" customHeight="1">
-      <c r="A82" t="s" s="4">
-        <v>186</v>
+      <c r="A82" t="s" s="19">
+        <v>191</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C82" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D82" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s" s="20">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E82" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="G82" s="21"/>
       <c r="H82" s="21"/>
-      <c r="I82" t="s" s="20">
-        <v>188</v>
-      </c>
+      <c r="I82" s="8"/>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21"/>
@@ -5083,27 +4884,27 @@
       <c r="P82" s="21"/>
     </row>
     <row r="83" ht="13.65" customHeight="1">
-      <c r="A83" t="s" s="4">
-        <v>189</v>
+      <c r="A83" t="s" s="19">
+        <v>193</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C83" t="b" s="6">
         <v>0</v>
       </c>
       <c r="D83" t="b" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b" s="6">
         <v>1</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s" s="20">
-        <v>39</v>
-      </c>
+      <c r="F83" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="G83" s="21"/>
       <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
@@ -5112,78 +4913,18 @@
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
     </row>
-    <row r="84" ht="13.65" customHeight="1">
-      <c r="A84" t="s" s="4">
-        <v>191</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="C84" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-    </row>
-    <row r="85" ht="13.65" customHeight="1">
-      <c r="A85" t="s" s="4">
-        <v>193</v>
-      </c>
-      <c r="B85" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="C85" t="b" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" t="b" s="6">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D15 F2:F25 D16 C17:D25 D26 F26:F28 C27:D27 D28 C29:D85 F29:F85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E15 D16:E16 C17:E25 D26:E26 C27:E27 D28:E28 C29:E83">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3 G5:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3 F5:F14">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F28">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G27 G29:G85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F27 F29:F83">
       <formula1>"string,float,integer,date,coordinates (lat,long),coordinates (geoJSON),coordinates (WKT),boolean"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_spreadsheet.xlsx
+++ b/template_spreadsheet.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>Column</t>
   </si>
@@ -560,7 +560,7 @@
     <t>Total.210Pb.Alpha..synonym.Total.210Po.</t>
   </si>
   <si>
-    <t>210Pb/210Po</t>
+    <t>210Pb alpha</t>
   </si>
   <si>
     <t>Total.210Pb.Alpha..synonym.Total.210Po..Units</t>
@@ -575,7 +575,7 @@
     <t>Total.210Pb.Gamma</t>
   </si>
   <si>
-    <t>210Pb</t>
+    <t>210Pb gamma</t>
   </si>
   <si>
     <t>Total.210Pb.Gamma.Units</t>
@@ -632,6 +632,9 @@
     <t>Supported.210Pb</t>
   </si>
   <si>
+    <t>Supported 210Pb</t>
+  </si>
+  <si>
     <t>Supported.210Pb.Units</t>
   </si>
   <si>
@@ -686,6 +689,12 @@
     <t>The format is the regex for a DOI</t>
   </si>
   <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>ndb.publications.publicationid</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -714,12 +723,6 @@
   </si>
   <si>
     <t>ndb.leadmodels.cumulativeinventory</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>ndb.contactreferences.contactid</t>
   </si>
 </sst>
 </file>
@@ -2220,12 +2223,8 @@
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28" style="18" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="18" customWidth="1"/>
-    <col min="7" max="13" width="24.8516" style="18" customWidth="1"/>
+    <col min="2" max="10" width="11.5" style="18" customWidth="1"/>
+    <col min="11" max="13" width="24.8516" style="18" customWidth="1"/>
     <col min="14" max="14" width="24.5" style="18" customWidth="1"/>
     <col min="15" max="16" width="31.5" style="18" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="18" customWidth="1"/>
@@ -4317,7 +4316,7 @@
       </c>
       <c r="N67" s="21"/>
       <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
+      <c r="P67" s="20"/>
     </row>
     <row r="68" ht="13.65" customHeight="1">
       <c r="A68" t="s" s="19">
@@ -4355,7 +4354,7 @@
       </c>
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
+      <c r="P68" s="20"/>
     </row>
     <row r="69" ht="13.65" customHeight="1">
       <c r="A69" t="s" s="19">
@@ -4397,7 +4396,9 @@
       <c r="O69" t="s" s="20">
         <v>144</v>
       </c>
-      <c r="P69" s="21"/>
+      <c r="P69" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="70" ht="13.65" customHeight="1">
       <c r="A70" t="s" s="19">
@@ -4439,7 +4440,9 @@
       <c r="O70" t="s" s="20">
         <v>149</v>
       </c>
-      <c r="P70" s="21"/>
+      <c r="P70" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="71" ht="13.65" customHeight="1">
       <c r="A71" t="s" s="19">
@@ -4481,7 +4484,9 @@
       <c r="O71" t="s" s="20">
         <v>154</v>
       </c>
-      <c r="P71" s="21"/>
+      <c r="P71" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="72" ht="13.65" customHeight="1">
       <c r="A72" t="s" s="19">
@@ -4523,7 +4528,9 @@
       <c r="O72" t="s" s="20">
         <v>159</v>
       </c>
-      <c r="P72" s="21"/>
+      <c r="P72" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="73" ht="13.65" customHeight="1">
       <c r="A73" t="s" s="19">
@@ -4565,7 +4572,9 @@
       <c r="O73" t="s" s="20">
         <v>163</v>
       </c>
-      <c r="P73" s="21"/>
+      <c r="P73" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="74" ht="13.65" customHeight="1">
       <c r="A74" t="s" s="19">
@@ -4591,19 +4600,19 @@
       <c r="I74" s="8"/>
       <c r="J74" s="21"/>
       <c r="K74" t="s" s="24">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="L74" t="s" s="20">
         <v>138</v>
       </c>
       <c r="M74" t="s" s="20">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N74" t="s" s="20">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O74" t="s" s="20">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P74" t="s" s="20">
         <v>105</v>
@@ -4611,7 +4620,7 @@
     </row>
     <row r="75" ht="13.65" customHeight="1">
       <c r="A75" t="s" s="19">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s" s="5">
         <v>132</v>
@@ -4633,19 +4642,19 @@
       <c r="I75" s="8"/>
       <c r="J75" s="21"/>
       <c r="K75" t="s" s="24">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L75" t="s" s="20">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="20">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N75" t="s" s="20">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O75" t="s" s="20">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P75" t="s" s="20">
         <v>105</v>
@@ -4653,7 +4662,7 @@
     </row>
     <row r="76" ht="13.65" customHeight="1">
       <c r="A76" t="s" s="19">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s" s="5">
         <v>132</v>
@@ -4675,28 +4684,30 @@
       <c r="I76" s="8"/>
       <c r="J76" s="21"/>
       <c r="K76" t="s" s="24">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L76" t="s" s="20">
         <v>138</v>
       </c>
       <c r="M76" t="s" s="20">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N76" t="s" s="20">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O76" t="s" s="20">
-        <v>178</v>
-      </c>
-      <c r="P76" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="P76" t="s" s="20">
+        <v>105</v>
+      </c>
     </row>
     <row r="77" ht="13.65" customHeight="1">
       <c r="A77" t="s" s="19">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" t="b" s="6">
         <v>0</v>
@@ -4711,13 +4722,13 @@
         <v>29</v>
       </c>
       <c r="G77" t="s" s="20">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s" s="20">
         <v>115</v>
       </c>
       <c r="I77" t="s" s="7">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
@@ -4729,10 +4740,10 @@
     </row>
     <row r="78" ht="13.65" customHeight="1">
       <c r="A78" t="s" s="19">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" t="b" s="6">
         <v>0</v>
@@ -4741,15 +4752,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="b" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s" s="20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" s="21"/>
-      <c r="H78" t="s" s="20">
-        <v>115</v>
-      </c>
+      <c r="H78" s="21"/>
       <c r="I78" s="8"/>
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
@@ -4761,10 +4770,10 @@
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="19">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="C79" t="b" s="6">
         <v>0</v>
@@ -4793,10 +4802,10 @@
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="19">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="C80" t="b" s="6">
         <v>0</v>
@@ -4812,7 +4821,7 @@
       </c>
       <c r="G80" s="21"/>
       <c r="H80" t="s" s="20">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="21"/>
@@ -4840,10 +4849,12 @@
         <v>0</v>
       </c>
       <c r="F81" t="s" s="20">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="H81" t="s" s="20">
+        <v>191</v>
+      </c>
       <c r="I81" s="8"/>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
@@ -4855,10 +4866,10 @@
     </row>
     <row r="82" ht="13.65" customHeight="1">
       <c r="A82" t="s" s="19">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" t="b" s="6">
         <v>0</v>
@@ -4885,10 +4896,10 @@
     </row>
     <row r="83" ht="13.65" customHeight="1">
       <c r="A83" t="s" s="19">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" t="b" s="6">
         <v>0</v>
@@ -4897,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="b" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s" s="20">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
